--- a/python/lin/pert Error t1=6 t2=5.5.xlsx
+++ b/python/lin/pert Error t1=6 t2=5.5.xlsx
@@ -470,16 +470,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>5.95</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.71e-06</v>
+        <v>-0.84</v>
       </c>
       <c r="E2" t="n">
-        <v>5.98</v>
+        <v>5.86</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.353</v>
+        <v>-2.33</v>
       </c>
     </row>
     <row r="3">
@@ -492,16 +492,16 @@
         <v>5.5</v>
       </c>
       <c r="C3" t="n">
-        <v>5.5</v>
+        <v>5.64</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.000869</v>
+        <v>2.63</v>
       </c>
       <c r="E3" t="n">
-        <v>5.41</v>
+        <v>5.65</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.56</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0001</v>
+        <v>5.45e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001</v>
+        <v>5.5e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.23e-05</v>
+        <v>0.762</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0001</v>
+        <v>5.43e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>0.388</v>
+        <v>-0.512</v>
       </c>
     </row>
     <row r="5">
@@ -539,13 +539,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.77e-07</v>
+        <v>-1.11e-14</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>-6.270000000000001e-05</v>
+        <v>-8.52e-05</v>
       </c>
     </row>
     <row r="6">
@@ -558,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>2.99e-06</v>
+        <v>558000</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>111000</v>
+        <v>270000</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -584,7 +584,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.53e-08</v>
+        <v>2850</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>567</v>
+        <v>1380</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
